--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8330293333333333</v>
+        <v>0.07686466666666666</v>
       </c>
       <c r="H2">
-        <v>2.499088</v>
+        <v>0.230594</v>
       </c>
       <c r="I2">
-        <v>0.178164400954882</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="J2">
-        <v>0.1781644009548819</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N2">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O2">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P2">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q2">
-        <v>1.264983921016889</v>
+        <v>0.01879264235333333</v>
       </c>
       <c r="R2">
-        <v>11.384855289152</v>
+        <v>0.16913378118</v>
       </c>
       <c r="S2">
-        <v>0.01827459711272633</v>
+        <v>0.0007627195477332549</v>
       </c>
       <c r="T2">
-        <v>0.01827459711272633</v>
+        <v>0.0007627195477332548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8330293333333333</v>
+        <v>0.07686466666666666</v>
       </c>
       <c r="H3">
-        <v>2.499088</v>
+        <v>0.230594</v>
       </c>
       <c r="I3">
-        <v>0.178164400954882</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="J3">
-        <v>0.1781644009548819</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.255676</v>
       </c>
       <c r="O3">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P3">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q3">
-        <v>3.680788980387555</v>
+        <v>0.3396310390604445</v>
       </c>
       <c r="R3">
-        <v>33.127100823488</v>
+        <v>3.056679351544</v>
       </c>
       <c r="S3">
-        <v>0.0531745380759249</v>
+        <v>0.01378429002361182</v>
       </c>
       <c r="T3">
-        <v>0.05317453807592488</v>
+        <v>0.01378429002361182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8330293333333333</v>
+        <v>0.07686466666666666</v>
       </c>
       <c r="H4">
-        <v>2.499088</v>
+        <v>0.230594</v>
       </c>
       <c r="I4">
-        <v>0.178164400954882</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="J4">
-        <v>0.1781644009548819</v>
+        <v>0.07882978817959985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N4">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O4">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P4">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q4">
-        <v>7.386925932682665</v>
+        <v>1.583862995846445</v>
       </c>
       <c r="R4">
-        <v>66.48233339414399</v>
+        <v>14.254766962618</v>
       </c>
       <c r="S4">
-        <v>0.1067152657662307</v>
+        <v>0.06428277860825478</v>
       </c>
       <c r="T4">
-        <v>0.1067152657662307</v>
+        <v>0.06428277860825476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3352123333333333</v>
+        <v>0.3352123333333334</v>
       </c>
       <c r="H5">
         <v>1.005637</v>
       </c>
       <c r="I5">
-        <v>0.07169363931284717</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="J5">
-        <v>0.07169363931284715</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N5">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O5">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P5">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q5">
-        <v>0.5090315488608887</v>
+        <v>0.08195606337666668</v>
       </c>
       <c r="R5">
-        <v>4.581283939747999</v>
+        <v>0.73760457039</v>
       </c>
       <c r="S5">
-        <v>0.007353727046286793</v>
+        <v>0.003326274741857236</v>
       </c>
       <c r="T5">
-        <v>0.007353727046286791</v>
+        <v>0.003326274741857236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3352123333333333</v>
+        <v>0.3352123333333334</v>
       </c>
       <c r="H6">
         <v>1.005637</v>
       </c>
       <c r="I6">
-        <v>0.07169363931284717</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="J6">
-        <v>0.07169363931284715</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.255676</v>
       </c>
       <c r="O6">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P6">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q6">
-        <v>1.481155360623555</v>
+        <v>1.481155360623556</v>
       </c>
       <c r="R6">
         <v>13.330398245612</v>
       </c>
       <c r="S6">
-        <v>0.02139751899375247</v>
+        <v>0.06011427906396058</v>
       </c>
       <c r="T6">
-        <v>0.02139751899375247</v>
+        <v>0.06011427906396057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3352123333333333</v>
+        <v>0.3352123333333334</v>
       </c>
       <c r="H7">
         <v>1.005637</v>
       </c>
       <c r="I7">
-        <v>0.07169363931284717</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="J7">
-        <v>0.07169363931284715</v>
+        <v>0.3437823694266471</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N7">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O7">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P7">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q7">
-        <v>2.972510785600666</v>
+        <v>6.907340310476558</v>
       </c>
       <c r="R7">
-        <v>26.752597070406</v>
+        <v>62.16606279428901</v>
       </c>
       <c r="S7">
-        <v>0.0429423932728079</v>
+        <v>0.2803418156208294</v>
       </c>
       <c r="T7">
-        <v>0.0429423932728079</v>
+        <v>0.2803418156208293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.50738</v>
+        <v>0.5629943333333333</v>
       </c>
       <c r="H8">
-        <v>10.52214</v>
+        <v>1.688983</v>
       </c>
       <c r="I8">
-        <v>0.7501419597322709</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="J8">
-        <v>0.7501419597322708</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.518534666666667</v>
+        <v>0.24449</v>
       </c>
       <c r="N8">
-        <v>4.555604</v>
+        <v>0.73347</v>
       </c>
       <c r="O8">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058336</v>
       </c>
       <c r="P8">
-        <v>0.1025715407499064</v>
+        <v>0.009675524511058334</v>
       </c>
       <c r="Q8">
-        <v>5.326078119173333</v>
+        <v>0.1376464845566666</v>
       </c>
       <c r="R8">
-        <v>47.93470307256</v>
+        <v>1.23881836101</v>
       </c>
       <c r="S8">
-        <v>0.07694321659089326</v>
+        <v>0.005586530221467845</v>
       </c>
       <c r="T8">
-        <v>0.07694321659089325</v>
+        <v>0.005586530221467844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.50738</v>
+        <v>0.5629943333333333</v>
       </c>
       <c r="H9">
-        <v>10.52214</v>
+        <v>1.688983</v>
       </c>
       <c r="I9">
-        <v>0.7501419597322709</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="J9">
-        <v>0.7501419597322708</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.255676</v>
       </c>
       <c r="O9">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="P9">
-        <v>0.2984577041818288</v>
+        <v>0.1748614367985708</v>
       </c>
       <c r="Q9">
-        <v>15.49756429629333</v>
+        <v>2.487623490834222</v>
       </c>
       <c r="R9">
-        <v>139.47807866664</v>
+        <v>22.388611417508</v>
       </c>
       <c r="S9">
-        <v>0.2238856471121515</v>
+        <v>0.1009628677109984</v>
       </c>
       <c r="T9">
-        <v>0.2238856471121514</v>
+        <v>0.1009628677109984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.50738</v>
+        <v>0.5629943333333333</v>
       </c>
       <c r="H10">
-        <v>10.52214</v>
+        <v>1.688983</v>
       </c>
       <c r="I10">
-        <v>0.7501419597322709</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="J10">
-        <v>0.7501419597322708</v>
+        <v>0.5773878423937531</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.867545999999999</v>
+        <v>20.60586566666667</v>
       </c>
       <c r="N10">
-        <v>26.602638</v>
+        <v>61.81759700000001</v>
       </c>
       <c r="O10">
-        <v>0.5989707550682648</v>
+        <v>0.815463038690371</v>
       </c>
       <c r="P10">
-        <v>0.5989707550682649</v>
+        <v>0.8154630386903708</v>
       </c>
       <c r="Q10">
-        <v>31.10185348948</v>
+        <v>11.60098560376122</v>
       </c>
       <c r="R10">
-        <v>279.91668140532</v>
+        <v>104.408870433851</v>
       </c>
       <c r="S10">
-        <v>0.4493130960292262</v>
+        <v>0.4708384444612869</v>
       </c>
       <c r="T10">
-        <v>0.4493130960292263</v>
+        <v>0.4708384444612868</v>
       </c>
     </row>
   </sheetData>
